--- a/biology/Histoire de la zoologie et de la botanique/Johann_Christoph_Röhling/Johann_Christoph_Röhling.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Johann_Christoph_Röhling/Johann_Christoph_Röhling.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Johann_Christoph_R%C3%B6hling</t>
+          <t>Johann_Christoph_Röhling</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Johann Christoph Röhling (né le 27 avril 1757 à Gundernhausen, près de Darmstadt et mort le 19 décembre 1813) est un botaniste et prêtre allemand.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Johann_Christoph_R%C3%B6hling</t>
+          <t>Johann_Christoph_Röhling</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il étudie la théologie à Giessen, avant d'enseigner à Francfort-sur-le-Main. En 1792 il devient pasteur à Braubach, et en 1800 il est nommé à la paroisse de Breckenheim.
 Il est l'auteur de Deutschlands Flora, un important traité sur la flore d'Allemagne, dont la première édition a été publiée en 1796. Il a aussi publié un travail sur les mousses d'Allemagne, Deutschlands Moose (1800).
